--- a/data/trans_dic/P45C_R1-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006971054630776832</v>
+        <v>0.00694275636859296</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008171479867591378</v>
+        <v>0.007734353002172171</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007446147836814504</v>
+        <v>0.008084603442192445</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003288926217733401</v>
+        <v>0.003269600374240697</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.003327894818257801</v>
+        <v>0.003344487284461701</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.008249387747076229</v>
+        <v>0.008518148170957071</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004037988095677655</v>
+        <v>0.003647249089416749</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.007604915032826741</v>
+        <v>0.006916089399321219</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.00928375860034278</v>
+        <v>0.008323938104664768</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.005828342956273646</v>
+        <v>0.00607916444692904</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.007374819649211477</v>
+        <v>0.007391755245218858</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03332142212619917</v>
+        <v>0.03202781954280816</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03918132124596045</v>
+        <v>0.039070193214989</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0209266046347205</v>
+        <v>0.02434118091873501</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03191669089506716</v>
+        <v>0.03440554302418727</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0306737123529114</v>
+        <v>0.03230263519815954</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03224462556778228</v>
+        <v>0.03327024497806078</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04018151160727028</v>
+        <v>0.04023418691646961</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02194179984889717</v>
+        <v>0.02201106971393404</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02714342101114034</v>
+        <v>0.02553420873244588</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03039107132739765</v>
+        <v>0.0292426783472806</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02335236449118701</v>
+        <v>0.02370270407696036</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02272716033134802</v>
+        <v>0.02246729858820401</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002417832690978772</v>
+        <v>0.002432951566035213</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00281287546896537</v>
+        <v>0.005043008775691109</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004910830471640339</v>
+        <v>0.004948051309806549</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003210161256816497</v>
+        <v>0.003449272992979974</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005409012283563277</v>
+        <v>0.007579522703361261</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01232696220540145</v>
+        <v>0.01210360947534886</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007983228774125486</v>
+        <v>0.009525340448851482</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01153028740966937</v>
+        <v>0.01257365020995421</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.006160790526685789</v>
+        <v>0.006019178234955659</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01083767541789035</v>
+        <v>0.01061716080325709</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.008701615976278861</v>
+        <v>0.008804513455827036</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.009897308622484308</v>
+        <v>0.01037491703567971</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02520709342763932</v>
+        <v>0.02692635353155508</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02839186013901199</v>
+        <v>0.02992921723868222</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03125488278890623</v>
+        <v>0.03571871169567653</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03468649217624122</v>
+        <v>0.0415876280505687</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03129126985739267</v>
+        <v>0.03434456970347494</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0549248777038376</v>
+        <v>0.05070553348088944</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04052863046407868</v>
+        <v>0.04463008769079203</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0432951434231208</v>
+        <v>0.04308400603937348</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02463263681972713</v>
+        <v>0.0239176668030399</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03286954587331478</v>
+        <v>0.03185269285521333</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02928637277517408</v>
+        <v>0.02913555466109058</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03090065161359301</v>
+        <v>0.03198460498341688</v>
       </c>
     </row>
     <row r="10">
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01744171110920365</v>
+        <v>0.01706664959263466</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006096271114380515</v>
+        <v>0.006024536343585303</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01458783942201474</v>
+        <v>0.01454064724471664</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01230286750339411</v>
+        <v>0.01246307555997668</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.00755656118001506</v>
+        <v>0.007759174469552395</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.003538325344526041</v>
+        <v>0.003542017021659499</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01914887606280013</v>
+        <v>0.01953221545802305</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008489037065356721</v>
+        <v>0.00789938004887417</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01282831479123233</v>
+        <v>0.01214666230613173</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0475653158883353</v>
+        <v>0.04882842270043523</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02776761596573478</v>
+        <v>0.02596108149913535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01434266814067707</v>
+        <v>0.01380772306531444</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04578007163457465</v>
+        <v>0.04668198572654109</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07205489948819067</v>
+        <v>0.07189433490112986</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04544601298157441</v>
+        <v>0.04817320775548552</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.0345114753471471</v>
+        <v>0.0334339042293194</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04645926453050014</v>
+        <v>0.04725552954336393</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02538561260523971</v>
+        <v>0.0256772792052461</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.009093363456906974</v>
+        <v>0.0113577849750767</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03693887653823792</v>
+        <v>0.03751807852931747</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.007621379484656943</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01433090781746216</v>
+        <v>0.01433090781746215</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.0219500318076572</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009555309038097636</v>
+        <v>0.009331674587212461</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006069033534124033</v>
+        <v>0.005364837081841296</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003705630338237004</v>
+        <v>0.003928198247751017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.008274194357681128</v>
+        <v>0.007889756592755138</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0124099251871101</v>
+        <v>0.01270061652266962</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.006770492953946624</v>
+        <v>0.006774872530714973</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003487032531186601</v>
+        <v>0.00338243550691356</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.007564838281384243</v>
+        <v>0.007812798793842567</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01233885775045128</v>
+        <v>0.01279428262729083</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.007436644026498162</v>
+        <v>0.007333274444218964</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.004120356571599848</v>
+        <v>0.00420961826816602</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.009233524281911746</v>
+        <v>0.009786146719264283</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02479410298537295</v>
+        <v>0.02485011168611045</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0189267515186137</v>
+        <v>0.01847362690919763</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01394397836546171</v>
+        <v>0.01384322553289902</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02386347560431475</v>
+        <v>0.02359457842608205</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03457209536115567</v>
+        <v>0.03618082339335754</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02517145392250153</v>
+        <v>0.02377318745873312</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01668156587845597</v>
+        <v>0.01640050898518446</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02511453927693492</v>
+        <v>0.02524795757077637</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.025800230614644</v>
+        <v>0.02529874627244444</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0178073554235253</v>
+        <v>0.01770619004001797</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01234339811713789</v>
+        <v>0.01182677126427657</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02033661265072163</v>
+        <v>0.02052667255794841</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.00520114902760305</v>
+        <v>0.005214624742680279</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00732826518354742</v>
+        <v>0.007504964733227047</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004280119691774736</v>
+        <v>0.003994819781735927</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.009040708885279814</v>
+        <v>0.008836436780788192</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.006861779103927923</v>
+        <v>0.007895984275058384</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.005447507777114417</v>
+        <v>0.005709610428924931</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004325075940121231</v>
+        <v>0.004422013990447229</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01488877479573547</v>
+        <v>0.01448451159171066</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.008436158012191218</v>
+        <v>0.007968976032725032</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.008611702673258777</v>
+        <v>0.008229700790866266</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.005869406910976148</v>
+        <v>0.005580603973513646</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01485320523164855</v>
+        <v>0.01471198613836764</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03099694024018658</v>
+        <v>0.03029584240477649</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02995914502978233</v>
+        <v>0.03067469543655345</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02232673813837144</v>
+        <v>0.02489931994283088</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0376577770757143</v>
+        <v>0.0367632131047245</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03010204178585285</v>
+        <v>0.03464196407850095</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02281534519688455</v>
+        <v>0.02194299395758273</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02126871952948333</v>
+        <v>0.02049395913414605</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03229938893438007</v>
+        <v>0.03325279624882706</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0259880172772756</v>
+        <v>0.0253513758937216</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02152015288850397</v>
+        <v>0.02134624181870093</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01728485199028689</v>
+        <v>0.01759282375017221</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0299038015507802</v>
+        <v>0.03036981374297987</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.01093516402012816</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.005445147314354903</v>
+        <v>0.005445147314354904</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.01241356435347615</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.002979605819402291</v>
+        <v>0.002945213706427809</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.007647376518104988</v>
+        <v>0.00757396538015087</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.007869141044536171</v>
+        <v>0.006953715880414455</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01009505726594161</v>
+        <v>0.009834240865858346</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.005668784739284127</v>
+        <v>0.005724820409384128</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.002295138207804845</v>
+        <v>0.002150312595776725</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.007741717009420464</v>
+        <v>0.007823765521639799</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.008395814195071922</v>
+        <v>0.008939949912873868</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.007142421798143413</v>
+        <v>0.007582681125759559</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.002996144438117744</v>
+        <v>0.00323011231347963</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03696926496336354</v>
+        <v>0.03783129853225238</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0247475723079134</v>
+        <v>0.02157006464895272</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04992764467830414</v>
+        <v>0.04845381142821124</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06429388335568878</v>
+        <v>0.05752110056418322</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02158109718806322</v>
+        <v>0.01987549334722694</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02544225976349228</v>
+        <v>0.02565886766307606</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01952704693183823</v>
+        <v>0.01952099856626575</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01090062225587554</v>
+        <v>0.0102737419049621</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01991530717986331</v>
+        <v>0.01964628662345006</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02207297547533268</v>
+        <v>0.02219237083075227</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02102873606608558</v>
+        <v>0.02140734999362043</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.01709976407867452</v>
+        <v>0.01959190438157025</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01293844079920522</v>
+        <v>0.01255227351946628</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.009679048002767681</v>
+        <v>0.009240219312166632</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006036342480222133</v>
+        <v>0.006356159771080895</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01197584799663537</v>
+        <v>0.012473213298288</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01272324367898972</v>
+        <v>0.0125479843711491</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01173995162853627</v>
+        <v>0.01191102325354217</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.008111884106051985</v>
+        <v>0.007841773152730085</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01127735332358413</v>
+        <v>0.01109544955570381</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01351250802978839</v>
+        <v>0.01388312153087283</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01179122134786529</v>
+        <v>0.01142939221723817</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.008119937260428478</v>
+        <v>0.008117945014836259</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01288958114973624</v>
+        <v>0.01298699882087899</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02227682128258372</v>
+        <v>0.02251791488442865</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01742876780273043</v>
+        <v>0.0171087880561885</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01287894451804563</v>
+        <v>0.01358384198026458</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02281155133309548</v>
+        <v>0.02265620506934317</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02220350700063974</v>
+        <v>0.02180733434412348</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01991624313581796</v>
+        <v>0.02084389936855332</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0157349061570847</v>
+        <v>0.01491874159422523</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0186925641586091</v>
+        <v>0.01858505476509842</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02006348098304291</v>
+        <v>0.02023170414043588</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01754303921002269</v>
+        <v>0.017339169672802</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01344892040501372</v>
+        <v>0.01295329309856176</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.019176644864898</v>
+        <v>0.01896607615209887</v>
       </c>
     </row>
     <row r="25">
@@ -1870,40 +1870,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3303</v>
+        <v>3289</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3564</v>
+        <v>3374</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4100</v>
+        <v>4452</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2818</v>
+        <v>2910</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1972</v>
+        <v>1781</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5928</v>
+        <v>5391</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6951</v>
+        <v>6232</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4470</v>
+        <v>4663</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7663</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="7">
@@ -1914,40 +1914,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15787</v>
+        <v>15174</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17091</v>
+        <v>17042</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8901</v>
+        <v>10353</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17574</v>
+        <v>18944</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9376</v>
+        <v>9874</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10076</v>
+        <v>10397</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>13728</v>
+        <v>13746</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10717</v>
+        <v>10750</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21157</v>
+        <v>19902</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22753</v>
+        <v>21894</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>17910</v>
+        <v>18179</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23614</v>
+        <v>23344</v>
       </c>
     </row>
     <row r="8">
@@ -2050,40 +2050,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1158</v>
+        <v>2075</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1838</v>
+        <v>1852</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1551</v>
+        <v>1667</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2011</v>
+        <v>2819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4129</v>
+        <v>4055</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2945</v>
+        <v>3514</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4879</v>
+        <v>5320</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4552</v>
+        <v>4447</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8090</v>
+        <v>7926</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6467</v>
+        <v>6544</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8970</v>
+        <v>9403</v>
       </c>
     </row>
     <row r="11">
@@ -2094,40 +2094,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9249</v>
+        <v>9880</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11684</v>
+        <v>12316</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11699</v>
+        <v>13369</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16761</v>
+        <v>20096</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11636</v>
+        <v>12772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18400</v>
+        <v>16986</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14952</v>
+        <v>16465</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>18320</v>
+        <v>18231</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>18199</v>
+        <v>17670</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>24538</v>
+        <v>23779</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>21766</v>
+        <v>21654</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>28007</v>
+        <v>28989</v>
       </c>
     </row>
     <row r="12">
@@ -2230,38 +2230,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9428</v>
+        <v>9225</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3831</v>
+        <v>3786</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6860</v>
+        <v>6838</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2064</v>
+        <v>2091</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1933</v>
+        <v>1985</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13563</v>
+        <v>13835</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7507</v>
+        <v>6985</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8430</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="15">
@@ -2272,38 +2272,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25710</v>
+        <v>26393</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17451</v>
+        <v>16316</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7406</v>
+        <v>7130</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21528</v>
+        <v>21952</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12090</v>
+        <v>12063</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11626</v>
+        <v>12324</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>6449</v>
+        <v>6247</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>32907</v>
+        <v>33471</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>22449</v>
+        <v>22707</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>6206</v>
+        <v>7751</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>24273</v>
+        <v>24654</v>
       </c>
     </row>
     <row r="16">
@@ -2406,40 +2406,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11803</v>
+        <v>11527</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6957</v>
+        <v>6150</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4218</v>
+        <v>4472</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9327</v>
+        <v>8893</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8825</v>
+        <v>9032</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5155</v>
+        <v>5158</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2863</v>
+        <v>2777</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6509</v>
+        <v>6723</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>24016</v>
+        <v>24903</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>14187</v>
+        <v>13990</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8074</v>
+        <v>8249</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>18353</v>
+        <v>19452</v>
       </c>
     </row>
     <row r="19">
@@ -2450,40 +2450,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>30627</v>
+        <v>30696</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21696</v>
+        <v>21177</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15873</v>
+        <v>15759</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>26899</v>
+        <v>26596</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>24586</v>
+        <v>25730</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>19164</v>
+        <v>18100</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13698</v>
+        <v>13467</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>21610</v>
+        <v>21725</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>50217</v>
+        <v>49241</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>33971</v>
+        <v>33778</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>24187</v>
+        <v>23175</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>40422</v>
+        <v>40800</v>
       </c>
     </row>
     <row r="20">
@@ -2586,40 +2586,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1818</v>
+        <v>1823</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3721</v>
+        <v>3811</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2653</v>
+        <v>2476</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5121</v>
+        <v>5005</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3898</v>
+        <v>4485</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4130</v>
+        <v>4329</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3170</v>
+        <v>3241</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>12359</v>
+        <v>12023</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>7741</v>
+        <v>7312</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>10902</v>
+        <v>10419</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>7940</v>
+        <v>7549</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>20743</v>
+        <v>20546</v>
       </c>
     </row>
     <row r="23">
@@ -2630,40 +2630,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10835</v>
+        <v>10590</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15212</v>
+        <v>15576</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13838</v>
+        <v>15433</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21332</v>
+        <v>20825</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17098</v>
+        <v>19677</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>17299</v>
+        <v>16638</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>15588</v>
+        <v>15020</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>26811</v>
+        <v>27603</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>23845</v>
+        <v>23261</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>27244</v>
+        <v>27024</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>23381</v>
+        <v>23798</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>41762</v>
+        <v>42413</v>
       </c>
     </row>
     <row r="24">
@@ -2766,40 +2766,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2160</v>
+        <v>2140</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>9801</v>
+        <v>8661</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>11027</v>
+        <v>10743</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>6091</v>
+        <v>6152</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1936</v>
+        <v>1814</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>11937</v>
+        <v>12064</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>11387</v>
+        <v>12125</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>9693</v>
+        <v>10290</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>3239</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="27">
@@ -2810,40 +2810,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10962</v>
+        <v>11217</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6530</v>
+        <v>5692</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14104</v>
+        <v>13688</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15252</v>
+        <v>13646</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>26878</v>
+        <v>24754</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>27792</v>
+        <v>28029</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>20983</v>
+        <v>20976</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>9197</v>
+        <v>8668</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>30709</v>
+        <v>30294</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>29936</v>
+        <v>30098</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>28537</v>
+        <v>29051</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>18483</v>
+        <v>21177</v>
       </c>
     </row>
     <row r="28">
@@ -2946,40 +2946,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>42212</v>
+        <v>40952</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>32852</v>
+        <v>31363</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>20262</v>
+        <v>21335</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>41137</v>
+        <v>42845</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>42876</v>
+        <v>42286</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>41269</v>
+        <v>41870</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>28434</v>
+        <v>27487</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>40966</v>
+        <v>40306</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>89621</v>
+        <v>92079</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>81471</v>
+        <v>78970</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>55718</v>
+        <v>55705</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>91099</v>
+        <v>91787</v>
       </c>
     </row>
     <row r="31">
@@ -2990,40 +2990,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>72678</v>
+        <v>73465</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>59156</v>
+        <v>58070</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>43230</v>
+        <v>45596</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>78357</v>
+        <v>77824</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>74824</v>
+        <v>73489</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>70010</v>
+        <v>73271</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>55155</v>
+        <v>52294</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>67903</v>
+        <v>67513</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>133070</v>
+        <v>134186</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>121212</v>
+        <v>119804</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>92285</v>
+        <v>88884</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>135533</v>
+        <v>134045</v>
       </c>
     </row>
     <row r="32">
